--- a/experiments/00_general/results/statistics/stats_cortisol_features_wakeup_source.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_features_wakeup_source.xlsx
@@ -155,67 +155,67 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>6835.609</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>1.202e+06</t>
-  </si>
-  <si>
-    <t>2.645</t>
-  </si>
-  <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>11.234</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>3.492</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>15.49</t>
-  </si>
-  <si>
-    <t>209.588</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>3922.832</t>
-  </si>
-  <si>
-    <t>1.261</t>
-  </si>
-  <si>
-    <t>1.279</t>
-  </si>
-  <si>
-    <t>5.807</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>3.977</t>
-  </si>
-  <si>
-    <t>2.078</t>
+    <t>8806.849</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>1.112e+06</t>
+  </si>
+  <si>
+    <t>2.763</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>11.212</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>3.643</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>15.481</t>
+  </si>
+  <si>
+    <t>237.505</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>3652.492</t>
+  </si>
+  <si>
+    <t>1.314</t>
+  </si>
+  <si>
+    <t>1.091</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>3.507</t>
+  </si>
+  <si>
+    <t>2.076</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -661,10 +661,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.9691</v>
+        <v>0.9684</v>
       </c>
       <c r="D3">
-        <v>0.0451</v>
+        <v>0.0385</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.9857</v>
+        <v>0.9867</v>
       </c>
       <c r="D4">
-        <v>0.5552</v>
+        <v>0.5956</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -708,10 +708,10 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.9855</v>
+        <v>0.9849</v>
       </c>
       <c r="D6">
-        <v>0.4876</v>
+        <v>0.4427</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.9881</v>
+        <v>0.9893</v>
       </c>
       <c r="D7">
-        <v>0.7029</v>
+        <v>0.764</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -755,10 +755,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.9527</v>
+        <v>0.9533</v>
       </c>
       <c r="D9">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0.9437</v>
+        <v>0.9472</v>
       </c>
       <c r="D10">
-        <v>0.0021</v>
+        <v>0.0028</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.9622000000000001</v>
+        <v>0.961</v>
       </c>
       <c r="D12">
-        <v>0.0164</v>
+        <v>0.013</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.9735</v>
+        <v>0.973</v>
       </c>
       <c r="D13">
-        <v>0.1124</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -849,10 +849,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.9607</v>
+        <v>0.9594</v>
       </c>
       <c r="D15">
-        <v>0.0131</v>
+        <v>0.0103</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.9878</v>
+        <v>0.9897</v>
       </c>
       <c r="D16">
-        <v>0.6838</v>
+        <v>0.7907999999999999</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -896,10 +896,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.9668</v>
+        <v>0.9654</v>
       </c>
       <c r="D18">
-        <v>0.0319</v>
+        <v>0.0245</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0.9631999999999999</v>
+        <v>0.9651999999999999</v>
       </c>
       <c r="D19">
-        <v>0.0268</v>
+        <v>0.0312</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9631</v>
+        <v>0.9616</v>
       </c>
       <c r="D21">
-        <v>0.0186</v>
+        <v>0.0141</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9688</v>
+        <v>0.9689</v>
       </c>
       <c r="D22">
-        <v>0.058</v>
+        <v>0.0535</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1032,10 +1032,10 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>4.83</v>
+        <v>4.7425</v>
       </c>
       <c r="D3">
-        <v>0.0092</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>0.1989</v>
+        <v>0.2491</v>
       </c>
       <c r="D4">
-        <v>0.8199</v>
+        <v>0.7798</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1066,10 +1066,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.1025</v>
+        <v>0.1138</v>
       </c>
       <c r="D5">
-        <v>0.9026</v>
+        <v>0.8925</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1083,10 +1083,10 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>1.081</v>
+        <v>1.1332</v>
       </c>
       <c r="D6">
-        <v>0.3417</v>
+        <v>0.3245</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1100,10 +1100,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>2.898</v>
+        <v>2.7159</v>
       </c>
       <c r="D7">
-        <v>0.058</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>0.6475</v>
+        <v>0.7402</v>
       </c>
       <c r="D8">
-        <v>0.5247000000000001</v>
+        <v>0.4786</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1134,10 +1134,10 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>1.8444</v>
+        <v>2.0366</v>
       </c>
       <c r="D9">
-        <v>0.1614</v>
+        <v>0.1337</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F3">
-        <v>3.0621</v>
+        <v>3.02</v>
       </c>
       <c r="G3">
-        <v>0.0495</v>
+        <v>0.0515</v>
       </c>
       <c r="H3">
-        <v>0.0362</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1225,16 +1225,16 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F4">
-        <v>4.3593</v>
+        <v>4.3677</v>
       </c>
       <c r="G4">
-        <v>0.0143</v>
+        <v>0.0142</v>
       </c>
       <c r="H4">
-        <v>0.0508</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1251,16 +1251,16 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F5">
-        <v>0.6235000000000001</v>
+        <v>0.7164</v>
       </c>
       <c r="G5">
-        <v>0.5373</v>
+        <v>0.49</v>
       </c>
       <c r="H5">
-        <v>0.0076</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1277,16 +1277,16 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F6">
-        <v>5.4113</v>
+        <v>5.4382</v>
       </c>
       <c r="G6">
-        <v>0.0053</v>
+        <v>0.0052</v>
       </c>
       <c r="H6">
-        <v>0.0623</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1303,16 +1303,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F7">
-        <v>4.6606</v>
+        <v>4.6147</v>
       </c>
       <c r="G7">
-        <v>0.0108</v>
+        <v>0.0112</v>
       </c>
       <c r="H7">
-        <v>0.0541</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1329,16 +1329,16 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F8">
-        <v>5.1334</v>
+        <v>5.0306</v>
       </c>
       <c r="G8">
-        <v>0.0069</v>
+        <v>0.0076</v>
       </c>
       <c r="H8">
-        <v>0.0593</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1355,16 +1355,16 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F9">
-        <v>6.3989</v>
+        <v>6.3634</v>
       </c>
       <c r="G9">
-        <v>0.0021</v>
+        <v>0.0022</v>
       </c>
       <c r="H9">
-        <v>0.0728</v>
+        <v>0.0712</v>
       </c>
     </row>
   </sheetData>
@@ -1450,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-5.1486</v>
+        <v>-5.2137</v>
       </c>
       <c r="I3">
-        <v>38.7592</v>
+        <v>38.0712</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
@@ -1465,7 +1465,7 @@
         <v>45</v>
       </c>
       <c r="M3">
-        <v>-0.747</v>
+        <v>-0.7549</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1492,22 +1492,22 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.5691000000000001</v>
+        <v>0.4698</v>
       </c>
       <c r="I4">
-        <v>150.3842</v>
+        <v>152.6213</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>0.5701000000000001</v>
+        <v>0.6392</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
       </c>
       <c r="M4">
-        <v>0.0893</v>
+        <v>0.0731</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1534,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>6.5219</v>
+        <v>6.4852</v>
       </c>
       <c r="I5">
-        <v>25.5814</v>
+        <v>24.967</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
@@ -1549,7 +1549,7 @@
         <v>47</v>
       </c>
       <c r="M5">
-        <v>1.0911</v>
+        <v>1.0788</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-2.3206</v>
+        <v>-2.3449</v>
       </c>
       <c r="I6">
-        <v>8.903600000000001</v>
+        <v>8.8637</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>0.0457</v>
+        <v>0.0441</v>
       </c>
       <c r="L6" t="s">
         <v>48</v>
       </c>
       <c r="M6">
-        <v>-0.76</v>
+        <v>-0.77</v>
       </c>
       <c r="N6">
-        <v>0.1371</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1620,25 +1620,25 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1.4986</v>
+        <v>1.4541</v>
       </c>
       <c r="I7">
-        <v>155.521</v>
+        <v>158.0615</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>0.136</v>
+        <v>0.1479</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
       </c>
       <c r="M7">
-        <v>0.2363</v>
+        <v>0.2272</v>
       </c>
       <c r="N7">
-        <v>0.408</v>
+        <v>0.4437</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1662,25 +1662,25 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>3.0345</v>
+        <v>3.0318</v>
       </c>
       <c r="I8">
-        <v>8.5617</v>
+        <v>8.4832</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>0.015</v>
+        <v>0.0152</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
       </c>
       <c r="M8">
-        <v>1.1121</v>
+        <v>1.1208</v>
       </c>
       <c r="N8">
-        <v>0.045</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1706,22 +1706,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.1128</v>
+        <v>-0.1049</v>
       </c>
       <c r="I9">
-        <v>8.180099999999999</v>
+        <v>8.1518</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>0.9129</v>
+        <v>0.919</v>
       </c>
       <c r="L9" t="s">
         <v>51</v>
       </c>
       <c r="M9">
-        <v>-0.0447</v>
+        <v>-0.0417</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1748,25 +1748,25 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>-1.1163</v>
+        <v>-1.1952</v>
       </c>
       <c r="I10">
-        <v>155.176</v>
+        <v>158.485</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.266</v>
+        <v>0.2338</v>
       </c>
       <c r="L10" t="s">
         <v>52</v>
       </c>
       <c r="M10">
-        <v>-0.1769</v>
+        <v>-0.1876</v>
       </c>
       <c r="N10">
-        <v>0.798</v>
+        <v>0.7014</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1790,22 +1790,22 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>-0.3269</v>
+        <v>-0.3589</v>
       </c>
       <c r="I11">
-        <v>8.2668</v>
+        <v>8.214</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
       </c>
       <c r="K11">
-        <v>0.7519</v>
+        <v>0.7287</v>
       </c>
       <c r="L11" t="s">
         <v>53</v>
       </c>
       <c r="M11">
-        <v>-0.1301</v>
+        <v>-0.1437</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1834,25 +1834,25 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>-2.4727</v>
+        <v>-2.4946</v>
       </c>
       <c r="I12">
-        <v>8.681100000000001</v>
+        <v>8.645200000000001</v>
       </c>
       <c r="J12" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>0.0363</v>
+        <v>0.0352</v>
       </c>
       <c r="L12" t="s">
         <v>54</v>
       </c>
       <c r="M12">
-        <v>-0.8504</v>
+        <v>-0.8605</v>
       </c>
       <c r="N12">
-        <v>0.1089</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1876,25 +1876,25 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1.5557</v>
+        <v>1.5146</v>
       </c>
       <c r="I13">
-        <v>153.0608</v>
+        <v>155.1715</v>
       </c>
       <c r="J13" t="s">
         <v>44</v>
       </c>
       <c r="K13">
-        <v>0.1218</v>
+        <v>0.1319</v>
       </c>
       <c r="L13" t="s">
         <v>55</v>
       </c>
       <c r="M13">
-        <v>0.2445</v>
+        <v>0.2361</v>
       </c>
       <c r="N13">
-        <v>0.3654</v>
+        <v>0.3956999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1918,25 +1918,25 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>3.1713</v>
+        <v>3.1689</v>
       </c>
       <c r="I14">
-        <v>8.1584</v>
+        <v>8.1065</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>0.0128</v>
+        <v>0.013</v>
       </c>
       <c r="L14" t="s">
         <v>56</v>
       </c>
       <c r="M14">
-        <v>1.3075</v>
+        <v>1.3159</v>
       </c>
       <c r="N14">
-        <v>0.0384</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1962,25 +1962,25 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-4.113</v>
+        <v>-4.1514</v>
       </c>
       <c r="I15">
-        <v>13.279</v>
+        <v>13.1281</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.0012</v>
+        <v>0.0011</v>
       </c>
       <c r="L15" t="s">
         <v>57</v>
       </c>
       <c r="M15">
-        <v>-0.8797</v>
+        <v>-0.8893</v>
       </c>
       <c r="N15">
-        <v>0.0036</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2004,22 +2004,22 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.9396</v>
+        <v>0.852</v>
       </c>
       <c r="I16">
-        <v>150.1131</v>
+        <v>152.4077</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.3489</v>
+        <v>0.3955</v>
       </c>
       <c r="L16" t="s">
         <v>58</v>
       </c>
       <c r="M16">
-        <v>0.1474</v>
+        <v>0.1326</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2046,25 +2046,25 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>5.0186</v>
+        <v>4.9898</v>
       </c>
       <c r="I17">
-        <v>10.6808</v>
+        <v>10.571</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.0004</v>
+        <v>0.0005</v>
       </c>
       <c r="L17" t="s">
         <v>59</v>
       </c>
       <c r="M17">
-        <v>1.3319</v>
+        <v>1.3217</v>
       </c>
       <c r="N17">
-        <v>0.0012</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2090,25 +2090,25 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>-1.8531</v>
+        <v>-1.882</v>
       </c>
       <c r="I18">
-        <v>8.527699999999999</v>
+        <v>8.5022</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.0987</v>
+        <v>0.0944</v>
       </c>
       <c r="L18" t="s">
         <v>60</v>
       </c>
       <c r="M18">
-        <v>-0.662</v>
+        <v>-0.6731</v>
       </c>
       <c r="N18">
-        <v>0.2961</v>
+        <v>0.2832</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2132,25 +2132,25 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2.095</v>
+        <v>2.0128</v>
       </c>
       <c r="I19">
-        <v>153.3778</v>
+        <v>155.4419</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.0378</v>
+        <v>0.0459</v>
       </c>
       <c r="L19" t="s">
         <v>61</v>
       </c>
       <c r="M19">
-        <v>0.3294</v>
+        <v>0.3138</v>
       </c>
       <c r="N19">
-        <v>0.1134</v>
+        <v>0.1377</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2174,25 +2174,25 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2.7326</v>
+        <v>2.7198</v>
       </c>
       <c r="I20">
-        <v>8.0716</v>
+        <v>8.023999999999999</v>
       </c>
       <c r="J20" t="s">
         <v>44</v>
       </c>
       <c r="K20">
-        <v>0.0255</v>
+        <v>0.0262</v>
       </c>
       <c r="L20" t="s">
         <v>62</v>
       </c>
       <c r="M20">
-        <v>1.1618</v>
+        <v>1.1647</v>
       </c>
       <c r="N20">
-        <v>0.0765</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2218,25 +2218,25 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>-1.382</v>
+        <v>-1.4062</v>
       </c>
       <c r="I21">
-        <v>7.7606</v>
+        <v>7.7506</v>
       </c>
       <c r="J21" t="s">
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.2054</v>
+        <v>0.1985</v>
       </c>
       <c r="L21" t="s">
         <v>63</v>
       </c>
       <c r="M21">
-        <v>-0.6526999999999999</v>
+        <v>-0.6644</v>
       </c>
       <c r="N21">
-        <v>0.6162</v>
+        <v>0.5955</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2260,25 +2260,25 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2.6279</v>
+        <v>2.5759</v>
       </c>
       <c r="I22">
-        <v>154.8532</v>
+        <v>157.0484</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
       </c>
       <c r="K22">
-        <v>0.0095</v>
+        <v>0.0109</v>
       </c>
       <c r="L22" t="s">
         <v>64</v>
       </c>
       <c r="M22">
-        <v>0.4138</v>
+        <v>0.4021</v>
       </c>
       <c r="N22">
-        <v>0.0285</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2302,25 +2302,25 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2.1809</v>
+        <v>2.18</v>
       </c>
       <c r="I23">
-        <v>7.5891</v>
+        <v>7.5597</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
       </c>
       <c r="K23">
-        <v>0.0626</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="L23" t="s">
         <v>65</v>
       </c>
       <c r="M23">
-        <v>1.1696</v>
+        <v>1.1815</v>
       </c>
       <c r="N23">
-        <v>0.1878</v>
+        <v>0.1884</v>
       </c>
     </row>
   </sheetData>
